--- a/2019_2022_resequencing/measure_old_extracts.xlsx
+++ b/2019_2022_resequencing/measure_old_extracts.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brookesienkiewicz/Documents/LabNotebook/2019_2022_resequencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703A61E1-90A5-6B4D-A067-B35CFE9A0204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AB8D99-8536-EE49-8A17-C8054A8B8342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="760" windowWidth="26860" windowHeight="18880" xr2:uid="{B2F7E00D-8D6A-CF45-9D88-D2B84DD1F311}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{B2F7E00D-8D6A-CF45-9D88-D2B84DD1F311}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Green_Inventory" sheetId="2" r:id="rId2"/>
+    <sheet name="Pink_Inventory" sheetId="3" r:id="rId3"/>
+    <sheet name="Orange_Inventory" sheetId="4" r:id="rId4"/>
+    <sheet name="ALL-old_extracts" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ALL-old_extracts'!$A$1:$F$103</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="247">
   <si>
     <t>Sample</t>
   </si>
@@ -362,9 +369,6 @@
     <t>check tissue left</t>
   </si>
   <si>
-    <t>T3_10 2019 LOW (LABELLED AS T3_16)</t>
-  </si>
-  <si>
     <t>T3_10 PAST EMPTY</t>
   </si>
   <si>
@@ -480,6 +484,306 @@
   </si>
   <si>
     <t>sand</t>
+  </si>
+  <si>
+    <t>052022_BEL_CBC_T1_13_MCAV</t>
+  </si>
+  <si>
+    <t>052022_BEL_CBC_T1_40_MCAV</t>
+  </si>
+  <si>
+    <t>052022_BEL_CBC_T1_1_PAST</t>
+  </si>
+  <si>
+    <t>T1_1 2022</t>
+  </si>
+  <si>
+    <t>T3 - 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2_11 </t>
+  </si>
+  <si>
+    <t>T1_13 2022 empty</t>
+  </si>
+  <si>
+    <t>T1_40 2022 empty</t>
+  </si>
+  <si>
+    <t>enrich using pink</t>
+  </si>
+  <si>
+    <t>t1 13 2022</t>
+  </si>
+  <si>
+    <t>t3 8 (not very clearly labelled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labelled as q bio soil </t>
+  </si>
+  <si>
+    <t>T1 40 2022</t>
+  </si>
+  <si>
+    <t>T3_10 2019 LOW (MISLABELLED AS T3_16)</t>
+  </si>
+  <si>
+    <t>TI_20_MCAV</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Duplicate_y/n</t>
+  </si>
+  <si>
+    <t>T3_60_MCAV</t>
+  </si>
+  <si>
+    <t>T1_24_MCAV</t>
+  </si>
+  <si>
+    <t>T3_8_MCAV</t>
+  </si>
+  <si>
+    <t>T1_8_PAST</t>
+  </si>
+  <si>
+    <t>T2_21_PAST</t>
+  </si>
+  <si>
+    <t>T2_11_PAST</t>
+  </si>
+  <si>
+    <t>T3_23_PAST</t>
+  </si>
+  <si>
+    <t>T1_17_SSID</t>
+  </si>
+  <si>
+    <t>penguin</t>
+  </si>
+  <si>
+    <t>T1_12_MCAV</t>
+  </si>
+  <si>
+    <t>T3_43_MCAV</t>
+  </si>
+  <si>
+    <t>T3_40_MCAV</t>
+  </si>
+  <si>
+    <t>T3_50_MCAV</t>
+  </si>
+  <si>
+    <t>T1_70_MCAV</t>
+  </si>
+  <si>
+    <t>T3_49_MCAV</t>
+  </si>
+  <si>
+    <t>T3_51_MCAV</t>
+  </si>
+  <si>
+    <t>T1_52_PAST</t>
+  </si>
+  <si>
+    <t>T1_40_MCAV</t>
+  </si>
+  <si>
+    <t>T3_15_MCAV</t>
+  </si>
+  <si>
+    <t>T3_1_MCAV</t>
+  </si>
+  <si>
+    <t>T3_19_MCAV</t>
+  </si>
+  <si>
+    <t>T1_13_MCAV</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>T3_10_PAST</t>
+  </si>
+  <si>
+    <t>mislabelled as t3 16</t>
+  </si>
+  <si>
+    <t>T1_1_PAST</t>
+  </si>
+  <si>
+    <t>MAYBE 8??</t>
+  </si>
+  <si>
+    <t>T3_8_PAST</t>
+  </si>
+  <si>
+    <t>LOOKS LIKE RELABELLED (MAY HAVE ORIGINALLY BEEN T1_8 2019?)</t>
+  </si>
+  <si>
+    <t>T2_28_MCAV</t>
+  </si>
+  <si>
+    <t>T1_16_MCAV</t>
+  </si>
+  <si>
+    <t>T3_48_MCAV</t>
+  </si>
+  <si>
+    <t>T3_14_MCAV</t>
+  </si>
+  <si>
+    <t>T3_9_MCAV</t>
+  </si>
+  <si>
+    <t>CANT REALLY TELL IF ITS T3</t>
+  </si>
+  <si>
+    <t>T1_4_MCAV</t>
+  </si>
+  <si>
+    <t>T3_16_MCAV</t>
+  </si>
+  <si>
+    <t>T1_57_MCAV</t>
+  </si>
+  <si>
+    <t>T1_29_PSTR</t>
+  </si>
+  <si>
+    <t>T1_30_PSTR</t>
+  </si>
+  <si>
+    <t>DUP?</t>
+  </si>
+  <si>
+    <t>T3_13_MCAV</t>
+  </si>
+  <si>
+    <t>T2_10_MCAV</t>
+  </si>
+  <si>
+    <t>LABELLED AS 'T1_S1'</t>
+  </si>
+  <si>
+    <t>T3_12_PAST</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>T3_31_PAST</t>
+  </si>
+  <si>
+    <t>LABELLED 'T3_S31'</t>
+  </si>
+  <si>
+    <t>LABELLED AS 'T2_S21'</t>
+  </si>
+  <si>
+    <t>T2_29_PAST</t>
+  </si>
+  <si>
+    <t>LABELLED AS 'T1_S8'</t>
+  </si>
+  <si>
+    <t>T2_25_PAST</t>
+  </si>
+  <si>
+    <t>T1_15_SSID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3_28_SSID </t>
+  </si>
+  <si>
+    <t>T3_7_PAST</t>
+  </si>
+  <si>
+    <t>LABELLED AS 'T3_S7'</t>
+  </si>
+  <si>
+    <t>T3_25_PAST</t>
+  </si>
+  <si>
+    <t>LABELLED AS 'T3_S25'</t>
+  </si>
+  <si>
+    <t>LOOKS LIKE T3_16</t>
+  </si>
+  <si>
+    <t>DUP? LABELLED AS 'T1_S1'</t>
+  </si>
+  <si>
+    <t>NONE HAVE YEARS LABELLED</t>
+  </si>
+  <si>
+    <t>T1_3_MCAV</t>
+  </si>
+  <si>
+    <t>T1_20_MCAV</t>
+  </si>
+  <si>
+    <t>T2_5_MCAV</t>
+  </si>
+  <si>
+    <t>T2_9_MCAV</t>
+  </si>
+  <si>
+    <t>T2_16_MCAV</t>
+  </si>
+  <si>
+    <t>T3_6_MCAV</t>
+  </si>
+  <si>
+    <t>T3_11_MCAV</t>
+  </si>
+  <si>
+    <t>T1_2_SSID</t>
+  </si>
+  <si>
+    <t>T2_4_CNAT</t>
+  </si>
+  <si>
+    <t>T1_10_MMEA</t>
+  </si>
+  <si>
+    <t>T3_21_MMEA</t>
+  </si>
+  <si>
+    <t>T3_4</t>
+  </si>
+  <si>
+    <t>T3_4 PQ'??</t>
+  </si>
+  <si>
+    <t>T3_21</t>
+  </si>
+  <si>
+    <t>T3_21 MICROBE 6'</t>
+  </si>
+  <si>
+    <t>T3_4 MICROBE 3</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>ng/ul_2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q bio soil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no date </t>
+  </si>
+  <si>
+    <t>date 05/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date 05/18 </t>
   </si>
 </sst>
 </file>
@@ -495,7 +799,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +830,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -539,12 +873,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,12 +1220,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FDBAFB-F27F-0E4F-9DC9-B99E7C541D4B}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="192" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -896,9 +1237,11 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="39.5" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="39.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -942,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -978,10 +1321,10 @@
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1010,10 +1353,10 @@
         <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1040,10 +1383,10 @@
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1051,7 +1394,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1">
         <v>12.3</v>
@@ -1079,10 +1422,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1093,7 +1436,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1115,10 +1458,10 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1147,10 +1490,10 @@
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1158,7 +1501,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1">
         <v>25.2</v>
@@ -1180,10 +1523,10 @@
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1212,10 +1555,10 @@
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1244,10 +1587,10 @@
         <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1276,10 +1619,10 @@
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1305,10 +1648,10 @@
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1338,10 +1681,10 @@
         <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1352,7 +1695,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
@@ -1371,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1379,7 +1722,7 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1">
         <v>17.399999999999999</v>
@@ -1395,10 +1738,10 @@
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1406,7 +1749,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="1">
         <v>7.94</v>
@@ -1428,10 +1771,10 @@
         <v>3</v>
       </c>
       <c r="M16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1458,16 +1801,22 @@
         <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8.9600000000000009</v>
+      </c>
       <c r="H18" s="4" t="s">
         <v>72</v>
       </c>
@@ -1478,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1486,10 +1835,10 @@
         <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>76</v>
@@ -1502,10 +1851,10 @@
         <v>3</v>
       </c>
       <c r="M19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1516,7 +1865,7 @@
         <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>79</v>
@@ -1529,10 +1878,10 @@
         <v>3</v>
       </c>
       <c r="M20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1556,10 +1905,10 @@
         <v>0.47199999999999998</v>
       </c>
       <c r="M21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1583,16 +1932,24 @@
         <v>0.254</v>
       </c>
       <c r="M22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="F23" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="4">
+        <v>15</v>
+      </c>
       <c r="H23" s="4" t="s">
         <v>87</v>
       </c>
@@ -1603,7 +1960,13 @@
         <v>3</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1611,7 +1974,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24">
         <v>0.80400000000000005</v>
@@ -1627,10 +1990,10 @@
         <v>3</v>
       </c>
       <c r="M24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1644,7 +2007,7 @@
         <v>0.47</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1658,19 +2021,25 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="F27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1.75</v>
+      </c>
       <c r="J27" s="4">
         <v>0.17499999999999999</v>
       </c>
@@ -1679,6 +2048,12 @@
       </c>
       <c r="L27" s="4" t="s">
         <v>107</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1755,6 +2130,9 @@
       <c r="A33" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="F33" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="J33" s="4">
         <v>1.88</v>
       </c>
@@ -1769,11 +2147,14 @@
       <c r="A34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="J34" s="4">
         <v>2.25</v>
@@ -1787,7 +2168,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1">
         <v>4.22</v>
@@ -1799,10 +2180,10 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -1819,10 +2200,10 @@
         <v>107</v>
       </c>
       <c r="M36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1853,10 +2234,10 @@
         <v>107</v>
       </c>
       <c r="M38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -1873,10 +2254,10 @@
         <v>107</v>
       </c>
       <c r="M39" t="s">
+        <v>143</v>
+      </c>
+      <c r="N39" t="s">
         <v>144</v>
-      </c>
-      <c r="N39" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1909,22 +2290,22 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
         <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
       </c>
       <c r="C42" s="1">
         <v>9.36</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42">
         <v>0.72299999999999998</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G42">
         <v>7.11</v>
@@ -1936,58 +2317,2342 @@
         <v>3</v>
       </c>
       <c r="M42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="F43" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="1">
+        <v>18</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="4">
-        <v>18</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="L43" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
         <v>118</v>
-      </c>
-      <c r="B44" t="s">
-        <v>119</v>
       </c>
       <c r="C44" s="1">
         <v>7.28</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I44" s="2"/>
       <c r="M44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N44" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0270BA43-D4C8-944E-844B-AD383D00DBAA}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11">
+        <v>2022</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12">
+        <v>2022</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13">
+        <v>2022</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16">
+        <v>2022</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18">
+        <v>2022</v>
+      </c>
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19">
+        <v>2022</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="D20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21">
+        <v>2022</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22">
+        <v>2022</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23">
+        <v>2022</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25">
+        <v>2019</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26">
+        <v>2019</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27">
+        <v>2019</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28">
+        <v>2019</v>
+      </c>
+      <c r="D28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B3F3E8-46DF-4941-ACB4-7373B0162544}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView zoomScale="254" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2">
+        <v>2022</v>
+      </c>
+      <c r="D2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16">
+        <v>2022</v>
+      </c>
+      <c r="E16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30">
+        <v>2022</v>
+      </c>
+      <c r="E30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33">
+        <v>2019</v>
+      </c>
+      <c r="E33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34">
+        <v>2019</v>
+      </c>
+      <c r="E34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38">
+        <v>2019</v>
+      </c>
+      <c r="E38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>217</v>
+      </c>
+      <c r="E43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47">
+        <v>2019</v>
+      </c>
+      <c r="E47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <v>2022</v>
+      </c>
+      <c r="E48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50">
+        <v>2019</v>
+      </c>
+      <c r="E50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9215B087-E020-0149-8EA7-589822C50B97}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView zoomScale="182" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D5FCB0-A265-3147-8569-71E34C541C2E}">
+  <dimension ref="A1:F107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="240" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C5">
+        <v>0.89</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7.52</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C22" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2.38</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3.92</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="9">
+        <v>2019</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C40" s="8">
+        <v>3.95</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C56" s="8">
+        <v>9.23</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="10">
+        <v>450</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="10">
+        <v>445</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="10">
+        <v>458</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10">
+        <v>13.3</v>
+      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10">
+        <v>21.2</v>
+      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F103" xr:uid="{AEC7B8B7-FADB-E44E-ABEC-D0EBB1D41685}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>